--- a/biology/Médecine/Karl_Birnbaum/Karl_Birnbaum.xlsx
+++ b/biology/Médecine/Karl_Birnbaum/Karl_Birnbaum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Birnbaum (20 août 1878 à Schweidnitz, aujourd'hui Świdnica - 31 mars 1950 à Philadelphie, Pennsylvanie) est un psychiatre et neurologue américano-allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1902, il reçoit son doctorat de l'Université de Fribourg-en-Brisgau et travaille à l'asile d'Herzberge à Berlin-Lichtenberg. En 1923, il débute en tant qu'assistant de Karl Bonhoeffer (1868-1948) à l'Hôpital universitaire de la Charité de Berlin. En 1927, il devient professeur associé.
 En 1930, il est nommé directeur médical à Heil-und Pflegeanstalt à Berlin, mais parce qu'il était de confession juive, il a été renvoyé après l'arrivée au pouvoir des nazis en Allemagne. En 1939, il immigre aux États-Unis, pays dans lequel il a travaillé à New York. Dès 1940, il travaille au département municipal médical de Philadelphie.
